--- a/src/main/resources/fileTemplate/templateCongNo.xlsx
+++ b/src/main/resources/fileTemplate/templateCongNo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A2CCD7-AED9-4599-AC9A-D354381E895B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Công nợ" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,19 +84,79 @@
     <t>Số còn phải thu</t>
   </si>
   <si>
+    <t>Mã phiếu nhận</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${congNo.congNoCode}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${date}</t>
+  </si>
+  <si>
+    <t>&lt;jt:forEach items="${page.items}" var="item" indexVar="index"&gt;${index+1}</t>
+  </si>
+  <si>
+    <t>${item.tenNguoiGui}</t>
+  </si>
+  <si>
+    <t>${item.receiptCode}</t>
+  </si>
+  <si>
+    <t>${item.tongTien}</t>
+  </si>
+  <si>
+    <t>${item.tienTraTruoc}</t>
+  </si>
+  <si>
+    <t>${item.tienTraSau}</t>
+  </si>
+  <si>
+    <t>${item.tienCongNo}</t>
+  </si>
+  <si>
+    <t>${item.tienConPhaiThu}</t>
+  </si>
+  <si>
+    <t>${item.daThanhToan}&lt;/jt:forEach&gt;</t>
+  </si>
+  <si>
+    <t>${tongTienAll}</t>
+  </si>
+  <si>
+    <t>${tongTienTraTruoc}</t>
+  </si>
+  <si>
+    <t>${tongTienTraSau}</t>
+  </si>
+  <si>
+    <t>${tongTienCongNo}</t>
+  </si>
+  <si>
+    <t>${tongConPhaiThu}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Từ ngày: </t>
+  </si>
+  <si>
+    <t>${fromGenDate}</t>
+  </si>
+  <si>
+    <t>${toGenDate}</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">CÔNG TY TNHH GIAO NHẬN &amp; VẬN TẢI TỐC ĐỘ VIỆT NAM </t>
+      <t xml:space="preserve">CÔNG TY TNHH GIAO NHẬN &amp; VẬN TẢI TỐC ĐỘ VIỆT NAM  </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -108,7 +167,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -117,18 +176,18 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Số 9, ngách 20/2 phố Nghĩa Đô, Phường Nghĩa Đô, Quận Cầu Giấy, Thành phố Hà Nội
+      <t xml:space="preserve">Số 9, ngách 20/2 phố Nghĩa Đô, Phường Nghĩa Đô, Quận Cầu Giấy, Thành phố Hà Nội  
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -137,7 +196,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -147,7 +206,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -156,7 +215,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -166,7 +225,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -175,85 +234,26 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> www.stlvietnam.vn</t>
+      <t xml:space="preserve"> www.stlvietnam.vn  
+</t>
     </r>
-  </si>
-  <si>
-    <t>Mã phiếu nhận</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ${congNo.congNoCode}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ${date}</t>
-  </si>
-  <si>
-    <t>&lt;jt:forEach items="${page.items}" var="item" indexVar="index"&gt;${index+1}</t>
-  </si>
-  <si>
-    <t>${item.tenNguoiGui}</t>
-  </si>
-  <si>
-    <t>${item.receiptCode}</t>
-  </si>
-  <si>
-    <t>${item.tongTien}</t>
-  </si>
-  <si>
-    <t>${item.tienTraTruoc}</t>
-  </si>
-  <si>
-    <t>${item.tienTraSau}</t>
-  </si>
-  <si>
-    <t>${item.tienCongNo}</t>
-  </si>
-  <si>
-    <t>${item.tienConPhaiThu}</t>
-  </si>
-  <si>
-    <t>${item.daThanhToan}&lt;/jt:forEach&gt;</t>
-  </si>
-  <si>
-    <t>${tongTienAll}</t>
-  </si>
-  <si>
-    <t>${tongTienTraTruoc}</t>
-  </si>
-  <si>
-    <t>${tongTienTraSau}</t>
-  </si>
-  <si>
-    <t>${tongTienCongNo}</t>
-  </si>
-  <si>
-    <t>${tongConPhaiThu}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Từ ngày: </t>
-  </si>
-  <si>
-    <t>${fromGenDate}</t>
-  </si>
-  <si>
-    <t>${toGenDate}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$VND]\ #,##0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,31 +264,38 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -296,17 +303,24 @@
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -373,11 +387,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -394,38 +414,32 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,44 +777,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="2" customWidth="1"/>
-    <col min="10" max="13" width="9.140625" style="2"/>
-    <col min="14" max="14" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="4" customWidth="1"/>
+    <col min="4" max="7" width="12.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="4" customWidth="1"/>
+    <col min="10" max="13" width="9.140625" style="4"/>
+    <col min="14" max="14" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" s="21" t="s">
         <v>12</v>
       </c>
@@ -808,189 +819,189 @@
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="I3" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="I4" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="8"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:9" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="C10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="F10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="G10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="H10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="I10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="17" t="s">
+    </row>
+    <row r="11" spans="1:9" s="16" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="H11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="13" t="s">
+    <row r="20" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B3:F5"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="11" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.23622047244094499" right="0.23622047244094499" top="0.196850393700787" bottom="0.196850393700787" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="11" scale="80" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>